--- a/MatrizODMedellin Modelos/MatrizOD12Ptos.xlsx
+++ b/MatrizODMedellin Modelos/MatrizOD12Ptos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20351"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williz/Dropbox/Doctorado/Tesis Doctorado/Avances Tesis/Analisis Datos Tesis/MatrizODMedellin Modelos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sin definir\Desktop\ModelosED\ModelosED\MatrizODMedellin Modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96E6F5C5-1887-BA42-A5FA-F03DC3205142}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF06C0A7-8B0D-4DCD-BC21-EFFB3DC737AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24000" windowHeight="8780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="24000" windowHeight="8775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ODFull" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>Latitud</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Universidad de Antioquia - Zona Oriental</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
@@ -470,18 +473,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection sqref="A1:C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.5" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="6" max="6" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -492,7 +495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -503,7 +506,7 @@
         <v>-75.587549999999993</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -514,7 +517,7 @@
         <v>-75.591989999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -525,7 +528,7 @@
         <v>-75.571060000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -536,7 +539,7 @@
         <v>-75.574404000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -547,7 +550,7 @@
         <v>-75.580550000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -558,7 +561,7 @@
         <v>-75.557429999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -569,7 +572,7 @@
         <v>-75.554713000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -580,7 +583,7 @@
         <v>-75.57159</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -591,7 +594,7 @@
         <v>-75.577209999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -602,7 +605,7 @@
         <v>-75.565792999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -613,7 +616,7 @@
         <v>-75.601588000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -624,7 +627,7 @@
         <v>-75.596190000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -635,7 +638,7 @@
         <v>-75.589434999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -646,7 +649,7 @@
         <v>-75.574438000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -657,7 +660,7 @@
         <v>-75.576499999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -668,7 +671,7 @@
         <v>-75.557649999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -679,7 +682,7 @@
         <v>-75.562178000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -690,7 +693,7 @@
         <v>-75.570485000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -701,7 +704,7 @@
         <v>-75.567431999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -712,7 +715,7 @@
         <v>-75.604523</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -723,7 +726,7 @@
         <v>-75.609888999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -734,7 +737,7 @@
         <v>-75.569559999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -745,7 +748,7 @@
         <v>-75.590900000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -756,7 +759,7 @@
         <v>-75.591809999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -767,7 +770,7 @@
         <v>-75.592982000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -778,7 +781,7 @@
         <v>-75.561384000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -789,7 +792,7 @@
         <v>-75.571295000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -800,7 +803,7 @@
         <v>-75.563665999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -811,7 +814,7 @@
         <v>-75.574579999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -822,7 +825,7 @@
         <v>-75.558228</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -833,7 +836,7 @@
         <v>-75.586550000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -844,7 +847,7 @@
         <v>-75.564184999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -855,7 +858,7 @@
         <v>-75.604236999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -866,7 +869,7 @@
         <v>-75.596843000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -877,7 +880,7 @@
         <v>-75.557670000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -888,7 +891,7 @@
         <v>-75.567779999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -899,7 +902,7 @@
         <v>-75.565776999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -910,7 +913,7 @@
         <v>-75.587440000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -921,7 +924,7 @@
         <v>-75.597579999999994</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -939,304 +942,343 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>6.2863150000000001</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>-75.574404000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>6.2738290000000001</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>-75.592982000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>6.2555750000000003</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>-75.601588000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>6.2444800000000003</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>-75.589434999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>6.2320390000000003</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>-75.604523</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>6.2188299999999996</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>-75.586550000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>6.2090420000000002</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>-75.567779999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>6.2292639999999997</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>-75.570485000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>6.2448639999999997</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>-75.577209999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>6.2536389999999997</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>-75.564184999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>6.2665240000000004</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>-75.563665999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="1">
         <v>6.2822560000000003</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>-75.561384000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MatrizODMedellin Modelos/MatrizOD12Ptos.xlsx
+++ b/MatrizODMedellin Modelos/MatrizOD12Ptos.xlsx
@@ -5,23 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williz/Dropbox/Doctorado/Tesis Doctorado/Avances Tesis/Analisis Datos Tesis/MatrizODMedellin Modelos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williz/Desktop/ModelosED/MatrizODMedellin Modelos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96E6F5C5-1887-BA42-A5FA-F03DC3205142}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAE9775-18D5-CA4E-9A13-C8264E3ED86F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24000" windowHeight="8780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24000" windowHeight="12020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ODFull" sheetId="1" r:id="rId1"/>
     <sheet name="ODMatriz" sheetId="2" r:id="rId2"/>
+    <sheet name="Puentes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Latitud</t>
   </si>
@@ -150,6 +151,42 @@
   </si>
   <si>
     <t>Universidad de Antioquia - Zona Oriental</t>
+  </si>
+  <si>
+    <t>Madre Laura</t>
+  </si>
+  <si>
+    <t>Mico</t>
+  </si>
+  <si>
+    <t>Barranquilla</t>
+  </si>
+  <si>
+    <t>Minorista</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>San Juan</t>
+  </si>
+  <si>
+    <t>La 33</t>
+  </si>
+  <si>
+    <t>Av Guayabal</t>
+  </si>
+  <si>
+    <t>La 30</t>
+  </si>
+  <si>
+    <t>La 10</t>
+  </si>
+  <si>
+    <t>Gilberto Echeverri</t>
+  </si>
+  <si>
+    <t>Aguacatala</t>
   </si>
 </sst>
 </file>
@@ -470,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection sqref="A1:C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -939,10 +976,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -985,24 +1022,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1">
-        <v>6.2555750000000003</v>
+        <v>6.2790699999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>-75.601588000000007</v>
+        <v>-75.571295000000006</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>6.2444800000000003</v>
+        <v>6.2413080000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>-75.589434999999995</v>
+        <v>-75.587549999999993</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1018,126 +1055,135 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>6.2188299999999996</v>
+        <v>6.2569600000000003</v>
       </c>
       <c r="C7" s="1">
-        <v>-75.586550000000003</v>
+        <v>-75.591989999999996</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1">
-        <v>6.2090420000000002</v>
+        <v>6.2078949999999997</v>
       </c>
       <c r="C8" s="1">
-        <v>-75.567779999999999</v>
+        <v>-75.590900000000005</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1">
-        <v>6.2292639999999997</v>
+        <v>6.2188299999999996</v>
       </c>
       <c r="C9" s="1">
-        <v>-75.570485000000005</v>
+        <v>-75.586550000000003</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
-        <v>6.2448639999999997</v>
+        <v>6.2822560000000003</v>
       </c>
       <c r="C10" s="1">
-        <v>-75.577209999999994</v>
+        <v>-75.561384000000004</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1">
-        <v>6.2536389999999997</v>
+        <v>6.2665240000000004</v>
       </c>
       <c r="C11" s="1">
-        <v>-75.564184999999995</v>
+        <v>-75.563665999999998</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1">
-        <v>6.2665240000000004</v>
+        <v>6.2616630000000004</v>
       </c>
       <c r="C12" s="1">
-        <v>-75.563665999999998</v>
+        <v>-75.565776999999997</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1">
-        <v>6.2822560000000003</v>
+        <v>6.2536389999999997</v>
       </c>
       <c r="C13" s="1">
-        <v>-75.561384000000004</v>
+        <v>-75.564184999999995</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1">
+        <v>6.2523210000000002</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-75.567431999999997</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6.2357120000000004</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-75.569559999999996</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6.2090420000000002</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-75.567779999999999</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6.223611</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-75.574438000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
@@ -1173,11 +1219,6 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-    </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
@@ -1188,40 +1229,45 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
@@ -1233,10 +1279,201 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79D0D78-7E58-A940-A7F6-6718BF68E7E3}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>6.2861830000000003</v>
+      </c>
+      <c r="C2">
+        <v>-75.565989000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>6.2758929999999999</v>
+      </c>
+      <c r="C3">
+        <v>-75.569779999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>6.2652020000000004</v>
+      </c>
+      <c r="C4">
+        <v>-75.572181999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5">
+        <v>6.2608949999999997</v>
+      </c>
+      <c r="C5">
+        <v>-75.573702999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>6.2542119999999999</v>
+      </c>
+      <c r="C6">
+        <v>-75.577287999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7">
+        <v>6.24796</v>
+      </c>
+      <c r="C7">
+        <v>-75.580280999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8">
+        <v>6.2396450000000003</v>
+      </c>
+      <c r="C8">
+        <v>-75.577397000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>6.2368969999999999</v>
+      </c>
+      <c r="C9">
+        <v>-75.576466999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>6.2313780000000003</v>
+      </c>
+      <c r="C10">
+        <v>-75.575670000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>6.2135939999999996</v>
+      </c>
+      <c r="C11">
+        <v>-75.578073000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
+        <v>6.2040309999999996</v>
+      </c>
+      <c r="C12">
+        <v>-75.579593000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>6.1952930000000004</v>
+      </c>
+      <c r="C13">
+        <v>-75.581541999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
